--- a/data/Map068.xlsx
+++ b/data/Map068.xlsx
@@ -15,18 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>EV001</t>
+  </si>
   <si>
     <t>自動</t>
   </si>
   <si>
-    <t>ERS_テンプレートランダム生成 61 1 0 3 0 0</t>
-  </si>
-  <si>
-    <t>ERS_テンプレートランダム生成 62 1 0 3 0 0</t>
-  </si>
-  <si>
-    <t>ERS_テンプレートランダム生成 63 1 0 3 0 0</t>
+    <t>ーーーーーーーーアイテム生成数ーーーーーーーー</t>
   </si>
 </sst>
 </file>
@@ -365,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,24 +370,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
